--- a/stavropol.xlsx
+++ b/stavropol.xlsx
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus New 5</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
